--- a/obliczenia blokowiska transim.xlsx
+++ b/obliczenia blokowiska transim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oskar\SynologyDrive\Programowanie\TranSimCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57C23B0C-B6BA-4A62-9D50-0A2BE8CAEE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978C53DB-BB45-43D7-879E-3F1924D8B78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{036270F5-5EDC-46C1-94DD-C4A6BED584FF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Średnia liczba osób na mieszkanie</t>
   </si>
@@ -87,6 +87,78 @@
   </si>
   <si>
     <t>OS / KM2</t>
+  </si>
+  <si>
+    <t>NATĘŻENIE RUCHU</t>
+  </si>
+  <si>
+    <t>Liczba samochodów na osobę</t>
+  </si>
+  <si>
+    <t>Liczba przejazdów na dobę</t>
+  </si>
+  <si>
+    <t>ns+1</t>
+  </si>
+  <si>
+    <t>we+1</t>
+  </si>
+  <si>
+    <t>Łączna sieć drogowa (m)</t>
+  </si>
+  <si>
+    <t>Łączna sieć drogowa (km)</t>
+  </si>
+  <si>
+    <t>Średnia długość przejazdu (m)</t>
+  </si>
+  <si>
+    <t>Łączna ilość przejazdów na dobę</t>
+  </si>
+  <si>
+    <t>Łączna długość przejazdów (km/d)</t>
+  </si>
+  <si>
+    <t>Łączna długość przejazdów (m/d)</t>
+  </si>
+  <si>
+    <t>Średni dobowy ruch na drogę</t>
+  </si>
+  <si>
+    <t>WARIANT 2: 1/2 RUCHU NA OBWODNICY</t>
+  </si>
+  <si>
+    <t>km/d razem na obwodnicy</t>
+  </si>
+  <si>
+    <t>Średni dobowy ruch na obwodnicy</t>
+  </si>
+  <si>
+    <t>Długość obwodnicy (m)</t>
+  </si>
+  <si>
+    <t>Średni dobowy ruch na ulicach</t>
+  </si>
+  <si>
+    <t>Długość obwodnicy (km)</t>
+  </si>
+  <si>
+    <t>ZANIECZYSZCZENIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Średnie emisje (kg/km) </t>
+  </si>
+  <si>
+    <t>Wszystkie emisje z transportu (kg/km)</t>
+  </si>
+  <si>
+    <t>Średnie emisje (kg/d) na km drogi</t>
+  </si>
+  <si>
+    <t>Emisje na obywatela (kg/d)</t>
+  </si>
+  <si>
+    <t>DOBROBYT</t>
   </si>
 </sst>
 </file>
@@ -213,7 +285,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
@@ -221,6 +293,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Dane wejściowe" xfId="1" builtinId="20"/>
@@ -558,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADBBD64-3C4F-4383-A42C-A400E6416F10}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,18 +645,25 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="1.5546875" customWidth="1"/>
+    <col min="11" max="11" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -594,8 +676,21 @@
       <c r="D2" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>0.1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <f>D2+1</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -608,8 +703,21 @@
       <c r="D3" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <f>D3+1</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -623,12 +731,18 @@
         <f>D2*D3</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <f>B2*B3*B4</f>
         <v>240</v>
       </c>
@@ -638,16 +752,36 @@
       <c r="D5" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <f xml:space="preserve">  K2 * K3 * (D5+D6)</f>
+        <v>1305728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <f>H5/1000</f>
+        <v>1305.7280000000001</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -666,8 +800,22 @@
         <f>D3*D6</f>
         <v>6400</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <f>H2*H3*B7</f>
+        <v>480000</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7">
+        <f>H9/2</f>
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
@@ -675,12 +823,26 @@
         <f>D7*E7</f>
         <v>40960000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8">
+        <f>H7*H4</f>
+        <v>960000000</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8">
+        <f>(K2*D5+K3*D6)*2</f>
+        <v>25856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <f>B7/D9</f>
         <v>58593.75</v>
       </c>
@@ -691,8 +853,22 @@
         <f>D8/1000000</f>
         <v>40.96</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <f>H8/1000</f>
+        <v>960000</v>
+      </c>
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9">
+        <f>L8/1000</f>
+        <v>25.856000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
@@ -700,8 +876,79 @@
         <f>D5*D6</f>
         <v>4096</v>
       </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10">
+        <f>H9/H6</f>
+        <v>735.22203705519064</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10">
+        <f>L7/L9</f>
+        <v>18564.356435643564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11">
+        <f>H10/2</f>
+        <v>367.61101852759532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14">
+        <f>H9*H13</f>
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15">
+        <f>H14/H6</f>
+        <v>110.2833055582786</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16">
+        <f>H14/B7</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K6:N6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>